--- a/Riskmanagement/RiskList.xlsx
+++ b/Riskmanagement/RiskList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Identified</t>
   </si>
@@ -45,9 +45,6 @@
     <t>inconsistent database for blog backups</t>
   </si>
   <si>
-    <t>time management</t>
-  </si>
-  <si>
     <t xml:space="preserve">redundancy </t>
   </si>
   <si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>tobias Lamm</t>
+  </si>
+  <si>
+    <t>Sascha Hug</t>
+  </si>
+  <si>
+    <t>time management/projekt management</t>
   </si>
 </sst>
 </file>
@@ -133,8 +136,36 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,7 +464,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <f>PRODUCT(B2,C2)</f>
@@ -484,7 +515,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4">
         <v>0.3</v>
@@ -496,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F6" si="0">PRODUCT(B3,C3)</f>
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>0.25</v>
@@ -514,7 +545,9 @@
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>2.25</v>
@@ -531,10 +564,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
@@ -544,12 +577,15 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <f>SUM(C2:C5)</f>
+        <v>28</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F2:F5)</f>
+        <v>9.35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
